--- a/test excel.xlsx
+++ b/test excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>cell genotype</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>IOD</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
   </si>
 </sst>
 </file>
@@ -351,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,6 +385,74 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
